--- a/Trabalhos/Trabalho excel planilhas/Planilhas/Softwares_atualizados_e_desatualizados_-_TI.xlsx
+++ b/Trabalhos/Trabalho excel planilhas/Planilhas/Softwares_atualizados_e_desatualizados_-_TI.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d91a8fcf937042e/Tecnologia/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76169CE-FCAA-4D6A-9B2E-D8CEF8A8BEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6750" xr2:uid="{1418479F-38BF-495B-B69B-61E268F77EB5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Software" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,7 +250,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -292,6 +286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -300,23 +295,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="0D0D0D"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -340,7 +318,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-F22C-4EDB-B364-03BC32E27AFC}"/>
               </c:ext>
@@ -360,7 +338,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-F22C-4EDB-B364-03BC32E27AFC}"/>
               </c:ext>
@@ -387,15 +365,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3E94-43AA-9CC3-6302EC24B306}"/>
             </c:ext>
@@ -422,6 +400,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -447,7 +426,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -477,7 +456,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1067,7 +1046,7 @@
         <xdr:cNvPr id="10" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48F92BD-0D4D-8E49-1A40-BD596955EC14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D48F92BD-0D4D-8E49-1A40-BD596955EC14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,21 +1356,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12094F89-D0AB-4997-8C1B-A89C885E69E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -1399,14 +1378,14 @@
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1393,7 @@
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1428,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1443,37 +1422,37 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C7" s="6">
         <v>2021</v>
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ref="D7:D16" si="0">IF(B7&lt;C7,"Desatualizado","Atualizado")</f>
-        <v>Desatualizado</v>
+        <v>Atualizado</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C8" s="6">
         <v>2021</v>
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Desatualizado</v>
+        <v>Atualizado</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1488,22 +1467,22 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C10" s="6">
         <v>2021</v>
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>Desatualizado</v>
+        <v>Atualizado</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1518,7 +1497,7 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1533,7 +1512,7 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1527,7 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1563,7 +1542,7 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1557,7 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1593,7 +1572,7 @@
         <v>Desatualizado</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -1602,14 +1581,14 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f>COUNTIF(D6:D16, "Atualizado")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B21" s="9">
         <f>COUNTIF(D6:D16, "Desatualizado")</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
